--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2733337712354726</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.966053081694639</v>
+        <v>-1.960387365077868</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03396459467482393</v>
+        <v>0.03820311428273188</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2948061143398151</v>
+        <v>-0.2950032208320877</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2515157503002989</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.077706609326655</v>
+        <v>-2.070851683539838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009650413816921369</v>
+        <v>0.01733756701555567</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2950660028999968</v>
+        <v>-0.2955200778562694</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.24138794038256</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.209616114147892</v>
+        <v>-2.200599587162485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04149260263154918</v>
+        <v>0.04835774875500189</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3133209841806283</v>
+        <v>-0.3121179045537195</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2382073719987242</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.368144485738531</v>
+        <v>-2.353404570236762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06192597566381642</v>
+        <v>0.06804211711663297</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3391798959187122</v>
+        <v>-0.3400457044366211</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2269202553464355</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.581415900449701</v>
+        <v>-2.561540995812206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040907044811687</v>
+        <v>0.1057580794009865</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3225134469609894</v>
+        <v>-0.3221002533512623</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2012412326139385</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.519280633844899</v>
+        <v>-2.497076952502406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2306841742034075</v>
+        <v>0.2341079869765884</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3832952489855186</v>
+        <v>-0.3840208928867002</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1602809738913768</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.391281867835161</v>
+        <v>-2.365807678769032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.323890724230837</v>
+        <v>0.327152471665927</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4075510279197848</v>
+        <v>-0.4076532312861484</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1034125089000152</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.117112577276235</v>
+        <v>-2.090544082165969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4441125440843501</v>
+        <v>0.4481043155648946</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3640722558206146</v>
+        <v>-0.359876077607343</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02851034764655318</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.762389513445694</v>
+        <v>-1.736914594355519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5311343303986904</v>
+        <v>0.5326308796918718</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2815050762316368</v>
+        <v>-0.2761671404112746</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06716851894859581</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.198317454100209</v>
+        <v>-1.174869081760215</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5134210269597861</v>
+        <v>0.5141233100915131</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2317480973415593</v>
+        <v>-0.2265766070035607</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.185732942755278</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6270531978589077</v>
+        <v>-0.602820779694096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4168943275736302</v>
+        <v>0.4182653127309935</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1315873382571316</v>
+        <v>-0.1258201482980423</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.327493189887173</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07250211211423839</v>
+        <v>-0.04342525438379165</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2795957852488489</v>
+        <v>0.2808105452604849</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.007398567740619508</v>
+        <v>-0.00110138032453029</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4917717077662186</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5224485043058745</v>
+        <v>0.5549783757713204</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01027194238352783</v>
+        <v>-0.00630791181671071</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1329602353827064</v>
+        <v>0.140387500021159</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6673399434736281</v>
       </c>
       <c r="E15" t="n">
-        <v>1.066233195428183</v>
+        <v>1.096470791390902</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2338257457749224</v>
+        <v>-0.2290075870749236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2839335881269386</v>
+        <v>0.2933056368224816</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8454898382725043</v>
       </c>
       <c r="E16" t="n">
-        <v>1.621042709684943</v>
+        <v>1.65013562794439</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6272503043511803</v>
+        <v>-0.6186082797010918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4478955286878946</v>
+        <v>0.454221917065802</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.023804059602443</v>
       </c>
       <c r="E17" t="n">
-        <v>2.228510318388417</v>
+        <v>2.257591556263136</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8380067862257601</v>
+        <v>-0.8314978918364891</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5882455715226751</v>
+        <v>0.592051916895674</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.203538020441414</v>
       </c>
       <c r="E18" t="n">
-        <v>2.70149435748638</v>
+        <v>2.734311858425735</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.155193473687129</v>
+        <v>-1.14393066271386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7447349859543604</v>
+        <v>0.7514512071725403</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.37749788522885</v>
       </c>
       <c r="E19" t="n">
-        <v>3.13157050328872</v>
+        <v>3.167876059117255</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.450361175889505</v>
+        <v>-1.436531600372418</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9279140794878566</v>
+        <v>0.9334754026661278</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.533321367537953</v>
       </c>
       <c r="E20" t="n">
-        <v>3.446993452656271</v>
+        <v>3.482932536413989</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.720681779680796</v>
+        <v>-1.70990662476989</v>
       </c>
       <c r="G20" t="n">
-        <v>1.108451946024899</v>
+        <v>1.115628082391715</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.665024887779237</v>
       </c>
       <c r="E21" t="n">
-        <v>3.813484504099536</v>
+        <v>3.851010660132072</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.987389494471133</v>
+        <v>-1.977210039181318</v>
       </c>
       <c r="G21" t="n">
-        <v>1.23729826995141</v>
+        <v>1.245083246372135</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.770431294957467</v>
       </c>
       <c r="E22" t="n">
-        <v>4.163571915241442</v>
+        <v>4.20393056457034</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.272312039219602</v>
+        <v>-2.259163576136924</v>
       </c>
       <c r="G22" t="n">
-        <v>1.390432493870187</v>
+        <v>1.398624823708276</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.851590196636201</v>
       </c>
       <c r="E23" t="n">
-        <v>4.271246081801686</v>
+        <v>4.315157028135765</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.571938728291613</v>
+        <v>-2.55761857661598</v>
       </c>
       <c r="G23" t="n">
-        <v>1.532452831720967</v>
+        <v>1.538598174135602</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.908062657415699</v>
       </c>
       <c r="E24" t="n">
-        <v>4.469970307359088</v>
+        <v>4.513101588012622</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.896914042293934</v>
+        <v>-2.881274737168166</v>
       </c>
       <c r="G24" t="n">
-        <v>1.613850512789127</v>
+        <v>1.619408915871216</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.940916976539745</v>
       </c>
       <c r="E25" t="n">
-        <v>4.493059507868717</v>
+        <v>4.536294451936706</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.127124934955827</v>
+        <v>-3.10985694618465</v>
       </c>
       <c r="G25" t="n">
-        <v>1.699968529335195</v>
+        <v>1.706765053198375</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.951940316955405</v>
       </c>
       <c r="E26" t="n">
-        <v>4.539458376149705</v>
+        <v>4.586070411451965</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.273623240301424</v>
+        <v>-3.255113480628929</v>
       </c>
       <c r="G26" t="n">
-        <v>1.821774501367344</v>
+        <v>1.828963778166978</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.945176774845309</v>
       </c>
       <c r="E27" t="n">
-        <v>4.537912185221432</v>
+        <v>4.581133988856603</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.41630278986525</v>
+        <v>-3.395551126349164</v>
       </c>
       <c r="G27" t="n">
-        <v>1.865238672985605</v>
+        <v>1.873902598357057</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.924863097705011</v>
       </c>
       <c r="E28" t="n">
-        <v>4.492989425560354</v>
+        <v>4.533099866713798</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.495222769323138</v>
+        <v>-3.471489687605417</v>
       </c>
       <c r="G28" t="n">
-        <v>1.852477852671063</v>
+        <v>1.858678676913152</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.892189683562264</v>
       </c>
       <c r="E29" t="n">
-        <v>4.398354948500016</v>
+        <v>4.435707358809733</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.545984991323806</v>
+        <v>-3.52614074769622</v>
       </c>
       <c r="G29" t="n">
-        <v>1.891096124675598</v>
+        <v>1.897440033630596</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.848666640256847</v>
       </c>
       <c r="E30" t="n">
-        <v>4.356978645651754</v>
+        <v>4.391282475547654</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.657682320398548</v>
+        <v>-3.638143226821963</v>
       </c>
       <c r="G30" t="n">
-        <v>1.913869954797592</v>
+        <v>1.922698865603317</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.792790590213661</v>
       </c>
       <c r="E31" t="n">
-        <v>4.184419941931528</v>
+        <v>4.209786817462976</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.599988520086291</v>
+        <v>-3.583696573463886</v>
       </c>
       <c r="G31" t="n">
-        <v>1.904914019807958</v>
+        <v>1.909980386683411</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.727479856873338</v>
       </c>
       <c r="E32" t="n">
-        <v>4.079516946647828</v>
+        <v>4.099269937269733</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.522386964054494</v>
+        <v>-3.507084930037725</v>
       </c>
       <c r="G32" t="n">
-        <v>1.81222432680471</v>
+        <v>1.818547795086436</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.653307362981643</v>
       </c>
       <c r="E33" t="n">
-        <v>3.868735643955703</v>
+        <v>3.8804437695967</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.530184350883992</v>
+        <v>-3.513885104021132</v>
       </c>
       <c r="G33" t="n">
-        <v>1.777126230747356</v>
+        <v>1.781564776943718</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.573236206308179</v>
       </c>
       <c r="E34" t="n">
-        <v>3.70966194440311</v>
+        <v>3.71758270529629</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.490299487160593</v>
+        <v>-3.474159385539643</v>
       </c>
       <c r="G34" t="n">
-        <v>1.6794431732732</v>
+        <v>1.683724034275744</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.490289475661315</v>
       </c>
       <c r="E35" t="n">
-        <v>3.616656881012226</v>
+        <v>3.622974509101588</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.398271925966573</v>
+        <v>-3.383448057699577</v>
       </c>
       <c r="G35" t="n">
-        <v>1.617050938204399</v>
+        <v>1.620432409582943</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.406945889724337</v>
       </c>
       <c r="E36" t="n">
-        <v>3.416053573561825</v>
+        <v>3.418456812719461</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.304380613384507</v>
+        <v>-3.294893950913828</v>
       </c>
       <c r="G36" t="n">
-        <v>1.520064323669607</v>
+        <v>1.523355272066515</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.325816786774162</v>
       </c>
       <c r="E37" t="n">
-        <v>3.249140875809142</v>
+        <v>3.248296968012597</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.224417429565665</v>
+        <v>-3.215119113298713</v>
       </c>
       <c r="G37" t="n">
-        <v>1.398277332262639</v>
+        <v>1.399943247134366</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.246345871140373</v>
       </c>
       <c r="E38" t="n">
-        <v>3.122719691761631</v>
+        <v>3.124038115187722</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.101823761588471</v>
+        <v>-3.093762106054518</v>
       </c>
       <c r="G38" t="n">
-        <v>1.33537408036202</v>
+        <v>1.339444694439473</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.169864710514149</v>
       </c>
       <c r="E39" t="n">
-        <v>2.812669719368623</v>
+        <v>2.805252675066807</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.968194320116142</v>
+        <v>-2.959833354723554</v>
       </c>
       <c r="G39" t="n">
-        <v>1.206238666913509</v>
+        <v>1.207889981304327</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.093636942883777</v>
       </c>
       <c r="E40" t="n">
-        <v>2.562909512793508</v>
+        <v>2.553795892610057</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.860788802404626</v>
+        <v>-2.853001635911764</v>
       </c>
       <c r="G40" t="n">
-        <v>1.182764013707879</v>
+        <v>1.184330645309424</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.017863912001838</v>
       </c>
       <c r="E41" t="n">
-        <v>2.382840321693648</v>
+        <v>2.376346027785286</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.772167533406695</v>
+        <v>-2.766001750318788</v>
       </c>
       <c r="G41" t="n">
-        <v>1.059823584309094</v>
+        <v>1.062321726592639</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9405552780069871</v>
       </c>
       <c r="E42" t="n">
-        <v>2.151667987363892</v>
+        <v>2.145426281775257</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.663983080038679</v>
+        <v>-2.661592251289816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9691969392583001</v>
+        <v>0.9697663580137544</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8617039258266698</v>
       </c>
       <c r="E43" t="n">
-        <v>2.036452672414105</v>
+        <v>2.030745344426742</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.590498129599199</v>
+        <v>-2.58765687601429</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8626207288624196</v>
+        <v>0.8638690699801466</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7813095826341993</v>
       </c>
       <c r="E44" t="n">
-        <v>1.827749018155342</v>
+        <v>1.822704552001253</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.582651831158655</v>
+        <v>-2.578277527078293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7872588866020762</v>
+        <v>0.7890635060424394</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6996105650143024</v>
       </c>
       <c r="E45" t="n">
-        <v>1.585197069005044</v>
+        <v>1.582220030947681</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.472334977553867</v>
+        <v>-2.468248302947413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6821573247780135</v>
+        <v>0.6852234257689218</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6181599781483949</v>
       </c>
       <c r="E46" t="n">
-        <v>1.387167826338915</v>
+        <v>1.385112078626916</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.431898215652105</v>
+        <v>-2.425318508930425</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6585571074365653</v>
+        <v>0.6620086611234735</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.537553888829463</v>
       </c>
       <c r="E47" t="n">
-        <v>1.108241699099808</v>
+        <v>1.1044528743039</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.366493901371759</v>
+        <v>-2.361604200315305</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5514333790065941</v>
+        <v>0.55290510748223</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.460064633988292</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9480233218439421</v>
+        <v>0.9461077387486699</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.313583948629364</v>
+        <v>-2.309170223250547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4646218396173447</v>
+        <v>0.4652204593346172</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3866224173835699</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7237847558979115</v>
+        <v>0.7209873037557304</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.254403089336516</v>
+        <v>-2.248692111228927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3925524058020003</v>
+        <v>0.3917975609390006</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.319116782874853</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5929396261349466</v>
+        <v>0.5939952409046736</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.203269285096712</v>
+        <v>-2.198394914545213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3164649196404754</v>
+        <v>0.3170080575302934</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2575841707004562</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4154664005407215</v>
+        <v>0.4223592875779015</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.162664617664495</v>
+        <v>-2.154769407612906</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2619934454648536</v>
+        <v>0.2614065061323083</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2015349431046573</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2905271653054823</v>
+        <v>0.3008248844906614</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.085346310962334</v>
+        <v>-2.076882412179336</v>
       </c>
       <c r="G52" t="n">
-        <v>0.223719744809773</v>
+        <v>0.2260587418514087</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1495294171476984</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1557121647833367</v>
+        <v>0.165926661227334</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.03242978800353</v>
+        <v>-2.025354394954987</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1300196985276163</v>
+        <v>0.1305701366578889</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.09972926666064</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1101426038179853</v>
+        <v>0.1243605521272542</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.982655288536362</v>
+        <v>-1.976231806960409</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06218148407972544</v>
+        <v>0.06495703550054288</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05065901182978774</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08559144324923487</v>
+        <v>-0.06888265289687573</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.969545516728093</v>
+        <v>-1.963453466068776</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01738866869873747</v>
+        <v>0.02128553705337279</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.001429575723673487</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2059300669500208</v>
+        <v>-0.1892373371266616</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.853641059079397</v>
+        <v>-1.850450854000761</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01279052534034533</v>
+        <v>-0.006522538886074289</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.04828835809400749</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3630692027821604</v>
+        <v>-0.3461414052161649</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.778079190230599</v>
+        <v>-1.772098833250237</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06236791831524111</v>
+        <v>-0.05684893653160623</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.09801213222438136</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4094563906784207</v>
+        <v>-0.3883995771113354</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.767296735079238</v>
+        <v>-1.761055029490603</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1433655462064921</v>
+        <v>-0.1400804380019475</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1466129274582636</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6501935000517196</v>
+        <v>-0.6281803549850892</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.72056059568925</v>
+        <v>-1.716037366703615</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1656356597371225</v>
+        <v>-0.1616307478237599</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1933991166614893</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6746960271133494</v>
+        <v>-0.6519645383859919</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.644750518664998</v>
+        <v>-1.641817282050362</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2031924767795669</v>
+        <v>-0.2015221817635674</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2375319510871968</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8319242258790345</v>
+        <v>-0.8025845594922242</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.653099073648814</v>
+        <v>-1.649351130199451</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2514645867611903</v>
+        <v>-0.2484700281267366</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2788212321257478</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.003925191228534</v>
+        <v>-0.9747081688813598</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.590760860359376</v>
+        <v>-1.586674185752923</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3049680490525396</v>
+        <v>-0.3034627394708128</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3174439984299895</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.085835349176603</v>
+        <v>-1.054549438684611</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.626279450266912</v>
+        <v>-1.621729940415641</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3631699461004331</v>
+        <v>-0.3620369487818879</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3532532379811663</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.294671867811638</v>
+        <v>-1.261309768934374</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.592553799415012</v>
+        <v>-1.588105032882013</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4114727170919655</v>
+        <v>-0.4081379672523301</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3861900865232859</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.471216502820045</v>
+        <v>-1.437486471823872</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.533538655580482</v>
+        <v>-1.530655060600938</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4661062566056782</v>
+        <v>-0.4645994869758604</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4160588756477823</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.602321521143191</v>
+        <v>-1.566531362290746</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.563212672980111</v>
+        <v>-1.56292212341002</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4713390689634949</v>
+        <v>-0.4670377672876779</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4421922069339069</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.745855928864244</v>
+        <v>-1.708986794472617</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.526156652432848</v>
+        <v>-1.526651608735666</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5234525654722991</v>
+        <v>-0.5187745713890276</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4644349607349312</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.899476348797293</v>
+        <v>-1.861427495548213</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.545534410695388</v>
+        <v>-1.552148428547205</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5351256499591142</v>
+        <v>-0.5302636898163882</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.481992223295644</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.002984268130129</v>
+        <v>-1.963052682867822</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.556947606622022</v>
+        <v>-1.565572110695019</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5441852483632026</v>
+        <v>-0.5376325525312045</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4948860243905945</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.134743387998003</v>
+        <v>-2.09268962283556</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.560288196654021</v>
+        <v>-1.571089632430563</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6275788151716348</v>
+        <v>-0.6207341097214548</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5025679475379952</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.212615782950664</v>
+        <v>-2.17053792699472</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.568871819380473</v>
+        <v>-1.581638479887379</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6760684723188036</v>
+        <v>-0.666483256601988</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5046649711436807</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.29585458466146</v>
+        <v>-2.25528568840747</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.570448671318654</v>
+        <v>-1.581489554982106</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6739528626350769</v>
+        <v>-0.6689872390778964</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5012292883323475</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.280439396917645</v>
+        <v>-2.239955183452929</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.565684534398019</v>
+        <v>-1.573951326688744</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7288375304204258</v>
+        <v>-0.7222337329052457</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4918626636393989</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.32165947462018</v>
+        <v>-2.282199484891236</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.549600644628569</v>
+        <v>-1.559796160447384</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7242281585974271</v>
+        <v>-0.7193734986951557</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4770718809925288</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.218834127769844</v>
+        <v>-2.178796689020945</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.498887334238946</v>
+        <v>-1.509823094439853</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7446235703793307</v>
+        <v>-0.7406011378888772</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.456913330334171</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.190613588244715</v>
+        <v>-2.153303519329634</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.378793998617433</v>
+        <v>-1.391446775373248</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7472647973757844</v>
+        <v>-0.7424349582910585</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4326010250219239</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.035046194182438</v>
+        <v>-1.999893346321675</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.392592913124611</v>
+        <v>-1.405382934400971</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7081442688279768</v>
+        <v>-0.7033421706569781</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4044817356841942</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.879984706783662</v>
+        <v>-1.846965719207762</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.353618389385894</v>
+        <v>-1.3674932263938</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7186682954672468</v>
+        <v>-0.713450083590339</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3734642043727383</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.701372643678528</v>
+        <v>-1.673255037543809</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.291344418212456</v>
+        <v>-1.309760004783088</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6880321063757094</v>
+        <v>-0.6837264245556197</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3395657433619709</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.50479030867049</v>
+        <v>-1.475138191992225</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.281557715859096</v>
+        <v>-1.298609617512818</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6186739818651826</v>
+        <v>-0.614047089465093</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3030060629512363</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.337563700578262</v>
+        <v>-1.311062367680178</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.171032075377307</v>
+        <v>-1.186712991873667</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5616094622801071</v>
+        <v>-0.5564146111726539</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2637756342451713</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.118988661176866</v>
+        <v>-1.091405432643419</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.145541095758132</v>
+        <v>-1.158974998242583</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5207558566483907</v>
+        <v>-0.5156091871279376</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2224035049160752</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.8430424920913042</v>
+        <v>-0.8174653696347656</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.05727972861461</v>
+        <v>-1.072243761498334</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4914366309348532</v>
+        <v>-0.485873847708491</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1796833185565396</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5215603431464815</v>
+        <v>-0.4997662052934873</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9871682192891746</v>
+        <v>-1.005871435333715</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4342903486566867</v>
+        <v>-0.4294940906780516</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1363270008452178</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2831695310552727</v>
+        <v>-0.265127716795914</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9308308036533716</v>
+        <v>-0.9486521506510032</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3870607130119721</v>
+        <v>-0.3868052045960631</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09313385095333319</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.006962013361437807</v>
+        <v>0.008656121067012544</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8723047759292963</v>
+        <v>-0.8930082578583817</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3004229193455408</v>
+        <v>-0.2972283341226326</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.05052960690364552</v>
       </c>
       <c r="E87" t="n">
-        <v>0.249257445967857</v>
+        <v>0.2645499896720347</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7715672978489597</v>
+        <v>-0.7916181382814089</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2336753608215587</v>
+        <v>-0.2311407173357412</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.009401765477513186</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4560469771794379</v>
+        <v>0.4718227968017064</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.649324771437629</v>
+        <v>-0.6650100680782611</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.20196019619084</v>
+        <v>-0.1992313663089316</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02903675375250449</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7409885025530887</v>
+        <v>0.7573381210750842</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.495724792177852</v>
+        <v>-0.5115181323772114</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1253324922356787</v>
+        <v>-0.1218488174907706</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0633963110668793</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9909866969670215</v>
+        <v>1.008434271653381</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.36128502401507</v>
+        <v>-0.3758592240585206</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07008281242760267</v>
+        <v>-0.067199217448058</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09241888380359564</v>
       </c>
       <c r="E91" t="n">
-        <v>1.1717596312467</v>
+        <v>1.189069961412514</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1811837118572092</v>
+        <v>-0.1964718754171142</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04049785796151971</v>
+        <v>-0.03905095030342919</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1151976402030926</v>
       </c>
       <c r="E92" t="n">
-        <v>1.30380200044421</v>
+        <v>1.316822709318934</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03200037807243108</v>
+        <v>-0.04853396265388119</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04101033484142867</v>
+        <v>-0.04008758444797437</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1323237517545709</v>
       </c>
       <c r="E93" t="n">
-        <v>1.415104386510362</v>
+        <v>1.42610730892345</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1258687818051629</v>
+        <v>0.1131838839913481</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0407635867140651</v>
+        <v>-0.03949188482688362</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1445527140042034</v>
       </c>
       <c r="E94" t="n">
-        <v>1.437517584753902</v>
+        <v>1.441379411954355</v>
       </c>
       <c r="F94" t="n">
-        <v>0.260435574151854</v>
+        <v>0.2491158213030389</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06574500954951293</v>
+        <v>-0.06221753336187751</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1534550797916053</v>
       </c>
       <c r="E95" t="n">
-        <v>1.484481491646071</v>
+        <v>1.486658423349616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.419471312454084</v>
+        <v>0.4117213771875407</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08555056190268943</v>
+        <v>-0.08321594500532642</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1598471820505274</v>
       </c>
       <c r="E96" t="n">
-        <v>1.435562580360175</v>
+        <v>1.432544660956267</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4596941773105278</v>
+        <v>0.4531998834021659</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1229876550016794</v>
+        <v>-0.1205260139204073</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1642108389227822</v>
       </c>
       <c r="E97" t="n">
-        <v>1.363306260389194</v>
+        <v>1.361357096187831</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5331783977259626</v>
+        <v>0.5291296843698727</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1603429854075784</v>
+        <v>-0.157311925570852</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1650555931830397</v>
       </c>
       <c r="E98" t="n">
-        <v>1.271483835951946</v>
+        <v>1.269336105210219</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5572180895427743</v>
+        <v>0.553673092778048</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.196330250752296</v>
+        <v>-0.1951563720872055</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1627756082586359</v>
       </c>
       <c r="E99" t="n">
-        <v>1.218682656792324</v>
+        <v>1.211929934371871</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5757957414514966</v>
+        <v>0.5747518070664969</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2139398907767459</v>
+        <v>-0.2154101592042909</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1551709540465608</v>
       </c>
       <c r="E100" t="n">
-        <v>1.114489244880807</v>
+        <v>1.111596889612716</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5465874793928681</v>
+        <v>0.5470473945415043</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2304866157910141</v>
+        <v>-0.2317583176781956</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1442809716340993</v>
       </c>
       <c r="E101" t="n">
-        <v>1.031123418986102</v>
+        <v>1.025982589658012</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5300188536572362</v>
+        <v>0.5313343569871449</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2218358308523801</v>
+        <v>-0.2231148329800161</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1227514557277796</v>
       </c>
       <c r="E102" t="n">
-        <v>0.960258524845757</v>
+        <v>0.9569077144771215</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4748290358208874</v>
+        <v>0.4737442200893422</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2498935750153726</v>
+        <v>-0.2506966014653724</v>
       </c>
     </row>
   </sheetData>
